--- a/lib/addons.xlsx
+++ b/lib/addons.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t xml:space="preserve">шины</t>
   </si>
@@ -83,6 +83,120 @@
   </si>
   <si>
     <t xml:space="preserve">wtyf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">шины премиум класса</t>
+  </si>
+  <si>
+    <t xml:space="preserve">шины с низким профилем</t>
+  </si>
+  <si>
+    <t xml:space="preserve">шины для бездорожья</t>
+  </si>
+  <si>
+    <t xml:space="preserve">резина премиум</t>
+  </si>
+  <si>
+    <t xml:space="preserve">для внедорожников</t>
+  </si>
+  <si>
+    <t xml:space="preserve">для SUV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">шини преміум класу</t>
+  </si>
+  <si>
+    <t xml:space="preserve">шини з низьким профілем</t>
+  </si>
+  <si>
+    <t xml:space="preserve">шини для бездоріжжя</t>
+  </si>
+  <si>
+    <t xml:space="preserve">для позашляховиків</t>
+  </si>
+  <si>
+    <t xml:space="preserve">лучшие</t>
+  </si>
+  <si>
+    <t xml:space="preserve">найкращі</t>
+  </si>
+  <si>
+    <t xml:space="preserve">недорого</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">гума </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">преміум</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">пермиум резина</t>
+  </si>
+  <si>
+    <t xml:space="preserve">свежие шины</t>
+  </si>
+  <si>
+    <t xml:space="preserve">новые шины</t>
+  </si>
+  <si>
+    <t xml:space="preserve">свіжі шини</t>
+  </si>
+  <si>
+    <t xml:space="preserve">нові шини</t>
+  </si>
+  <si>
+    <t xml:space="preserve">новые </t>
+  </si>
+  <si>
+    <t xml:space="preserve">нові</t>
+  </si>
+  <si>
+    <t xml:space="preserve">нова гума</t>
+  </si>
+  <si>
+    <t xml:space="preserve">нова</t>
+  </si>
+  <si>
+    <t xml:space="preserve">в наличии</t>
+  </si>
+  <si>
+    <t xml:space="preserve">в наявності</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Купить</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Заказать</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Выбрать</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Придбати</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Замовити</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вибрати</t>
+  </si>
+  <si>
+    <t xml:space="preserve">купити</t>
   </si>
 </sst>
 </file>
@@ -92,7 +206,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,6 +228,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -158,12 +278,20 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -356,13 +484,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A21"/>
+  <dimension ref="A1:A1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J15" activeCellId="0" sqref="J15"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C43" activeCellId="0" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="67.75"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -370,105 +501,270 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
     </row>
+    <row r="22" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>

--- a/lib/addons.xlsx
+++ b/lib/addons.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t xml:space="preserve">шины</t>
   </si>
@@ -140,6 +140,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">преміум</t>
     </r>
@@ -197,6 +198,57 @@
   </si>
   <si>
     <t xml:space="preserve">купити</t>
+  </si>
+  <si>
+    <t xml:space="preserve">авто резина</t>
+  </si>
+  <si>
+    <t xml:space="preserve">дешевые</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">дешев</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">і</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">резына</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">як</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">існі</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -206,7 +258,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -228,6 +280,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -278,8 +337,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -287,11 +350,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -486,278 +549,303 @@
   </sheetPr>
   <dimension ref="A1:A1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C43" activeCellId="0" sqref="C43"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A59" activeCellId="0" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="67.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="67.75"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+      <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+      <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+      <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+      <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+      <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="4" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+      <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+      <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+      <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+      <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+      <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
+      <c r="A40" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="4" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="4" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
+      <c r="A44" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
+      <c r="A45" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
+      <c r="A46" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
+      <c r="A47" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
+      <c r="A48" s="1" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
+      <c r="A49" s="1" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
+      <c r="A50" s="1" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
+      <c r="A51" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
+      <c r="A52" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
+      <c r="A53" s="1" t="s">
         <v>52</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/lib/addons.xlsx
+++ b/lib/addons.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t xml:space="preserve">шины</t>
   </si>
@@ -222,6 +222,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">і</t>
     </r>
@@ -246,9 +247,22 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">існі</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">по дешевым ценам</t>
+  </si>
+  <si>
+    <t xml:space="preserve">за дешевими цінами</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Лучшая резина</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Найкраща гума</t>
   </si>
 </sst>
 </file>
@@ -258,7 +272,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -288,12 +302,6 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -337,7 +345,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -356,6 +364,10 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -549,8 +561,8 @@
   </sheetPr>
   <dimension ref="A1:A1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A59" activeCellId="0" sqref="A59"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A49" activeCellId="0" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -846,6 +858,26 @@
     <row r="58" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
         <v>57</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/lib/addons.xlsx
+++ b/lib/addons.xlsx
@@ -10,6 +10,9 @@
   <sheets>
     <sheet name="iblock_element_admin (8)" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'iblock_element_admin (8)'!$A$1:$A$72</definedName>
+  </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -20,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="72">
   <si>
     <t xml:space="preserve">шины</t>
   </si>
@@ -264,6 +267,54 @@
   <si>
     <t xml:space="preserve">Найкраща гума</t>
   </si>
+  <si>
+    <t xml:space="preserve">Купить шины</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Купить резину</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Купити шини</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Купити гуму</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Купити резину</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Купити колеса</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Купить автошины</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Купити автошини</t>
+  </si>
+  <si>
+    <t xml:space="preserve">автогума</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Купити </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">автогуму</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -272,7 +323,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -301,6 +352,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -345,7 +402,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -366,6 +423,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -379,7 +440,28 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -561,8 +643,8 @@
   </sheetPr>
   <dimension ref="A1:A1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A49" activeCellId="0" sqref="A49"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A48" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D62" activeCellId="0" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -861,7 +943,7 @@
       </c>
     </row>
     <row r="59" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="5" t="s">
+      <c r="A59" s="3" t="s">
         <v>58</v>
       </c>
     </row>
@@ -878,6 +960,61 @@
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
         <v>61</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -886,6 +1023,7 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
+  <autoFilter ref="A1:A72"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -893,5 +1031,6 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/lib/addons.xlsx
+++ b/lib/addons.xlsx
@@ -10,9 +10,6 @@
   <sheets>
     <sheet name="iblock_element_admin (8)" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
-  <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'iblock_element_admin (8)'!$A$1:$A$72</definedName>
-  </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -311,6 +308,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">автогуму</t>
     </r>
@@ -323,7 +321,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -352,12 +350,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -402,7 +394,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -421,14 +413,6 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -458,10 +442,6 @@
     </dxf>
   </dxfs>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -643,8 +623,8 @@
   </sheetPr>
   <dimension ref="A1:A1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A48" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D62" activeCellId="0" sqref="D62"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -978,22 +958,22 @@
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="5" t="s">
+      <c r="A66" s="4" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="5" t="s">
+      <c r="A67" s="4" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="5" t="s">
+      <c r="A68" s="4" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="6" t="s">
+      <c r="A69" s="3" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1008,7 +988,7 @@
       </c>
     </row>
     <row r="72" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="6" t="s">
+      <c r="A72" s="3" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1023,7 +1003,6 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A1:A72"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1031,6 +1010,5 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>